--- a/mau_dien_nuoc.xlsx
+++ b/mau_dien_nuoc.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C3" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>705</v>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>704</v>
+        <v>779</v>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="C9" t="n">
         <v>69</v>
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="C10" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C11" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>788</v>
+        <v>706</v>
       </c>
       <c r="C12" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="C14" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>797</v>
+        <v>706</v>
       </c>
       <c r="C15" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>799</v>
+        <v>766</v>
       </c>
       <c r="C16" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>718</v>
+        <v>774</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="C18" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="C19" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>725</v>
+        <v>790</v>
       </c>
       <c r="C20" t="n">
         <v>69</v>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="C21" t="n">
         <v>69</v>
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>766</v>
+        <v>800</v>
       </c>
       <c r="C22" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>776</v>
+        <v>704</v>
       </c>
       <c r="C23" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>798</v>
+        <v>703</v>
       </c>
       <c r="C24" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>726</v>
+        <v>797</v>
       </c>
       <c r="C25" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="C26" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>724</v>
+        <v>777</v>
       </c>
       <c r="C27" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781</v>
+        <v>738</v>
       </c>
       <c r="C28" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>708</v>
+        <v>788</v>
       </c>
       <c r="C29" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>783</v>
+        <v>703</v>
       </c>
       <c r="C30" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="C31" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="C32" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>746</v>
+        <v>797</v>
       </c>
       <c r="C33" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782</v>
+        <v>722</v>
       </c>
       <c r="C34" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="C35" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>729</v>
+        <v>790</v>
       </c>
       <c r="C36" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732</v>
+        <v>705</v>
       </c>
       <c r="C37" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>708</v>
+        <v>758</v>
       </c>
       <c r="C38" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>704</v>
+        <v>745</v>
       </c>
       <c r="C39" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="C40" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C41" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>747</v>
+        <v>788</v>
       </c>
       <c r="C42" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="C43" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="C44" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="C45" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>765</v>
+        <v>726</v>
       </c>
       <c r="C46" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>798</v>
+        <v>710</v>
       </c>
       <c r="C47" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="C48" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>784</v>
+        <v>740</v>
       </c>
       <c r="C49" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>770</v>
+        <v>737</v>
       </c>
       <c r="C50" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>786</v>
+        <v>751</v>
       </c>
       <c r="C51" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>766</v>
+        <v>706</v>
       </c>
       <c r="C52" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>786</v>
+        <v>745</v>
       </c>
       <c r="C53" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C54" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>800</v>
+        <v>767</v>
       </c>
       <c r="C55" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>704</v>
+        <v>776</v>
       </c>
       <c r="C56" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C57" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="C58" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="C59" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>718</v>
+        <v>783</v>
       </c>
       <c r="C60" t="n">
         <v>78</v>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>755</v>
+        <v>799</v>
       </c>
       <c r="C61" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="C62" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C63" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>707</v>
+        <v>778</v>
       </c>
       <c r="C64" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C65" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C66" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>764</v>
+        <v>720</v>
       </c>
       <c r="C67" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="C68" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="C69" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>791</v>
+        <v>704</v>
       </c>
       <c r="C70" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>704</v>
+        <v>794</v>
       </c>
       <c r="C71" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>774</v>
+        <v>725</v>
       </c>
       <c r="C72" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>765</v>
+        <v>797</v>
       </c>
       <c r="C73" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>743</v>
+        <v>763</v>
       </c>
       <c r="C74" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>740</v>
+        <v>763</v>
       </c>
       <c r="C75" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>778</v>
+        <v>705</v>
       </c>
       <c r="C76" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>795</v>
+        <v>721</v>
       </c>
       <c r="C77" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>731</v>
+        <v>800</v>
       </c>
       <c r="C78" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>714</v>
+        <v>746</v>
       </c>
       <c r="C79" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>753</v>
+        <v>723</v>
       </c>
       <c r="C80" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>737</v>
+        <v>764</v>
       </c>
       <c r="C81" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>707</v>
+        <v>782</v>
       </c>
       <c r="C82" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C83" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="C84" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>786</v>
+        <v>720</v>
       </c>
       <c r="C85" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C86" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>754</v>
+        <v>718</v>
       </c>
       <c r="C87" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>785</v>
+        <v>717</v>
       </c>
       <c r="C88" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C89" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>787</v>
+        <v>721</v>
       </c>
       <c r="C90" t="n">
         <v>80</v>
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>757</v>
+        <v>777</v>
       </c>
       <c r="C91" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="C92" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>787</v>
+        <v>750</v>
       </c>
       <c r="C93" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C94" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>796</v>
+        <v>723</v>
       </c>
       <c r="C95" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="C96" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C97" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98">
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="C98" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>793</v>
+        <v>764</v>
       </c>
       <c r="C99" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100">
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C100" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>700</v>
+        <v>797</v>
       </c>
       <c r="C101" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
